--- a/apps/load_data/2016/12/PLMOVMAE.xlsx
+++ b/apps/load_data/2016/12/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2016\HHY1216\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2016\HHY1216\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B359B264-6C40-49B2-8502-130767198A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6628FEFD-3355-4A8E-B4CA-17A476BE5D5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$366</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$247</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14277" uniqueCount="2533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14263" uniqueCount="2532">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6428,9 +6429,6 @@
   </si>
   <si>
     <t>08771747</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047    120238    1202381054     30000     300001081    296920    2969201082    159880    1598802001         0     386002006     45100     451002026    209335    2093352027      3068      30682028      3600         02086      2500         0</t>
@@ -8480,8 +8478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="K352" sqref="K352"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD209" sqref="AC209:AD346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44087,12 +44085,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>103</v>
       </c>
@@ -44151,10 +44144,10 @@
         <v>109</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2136</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2137</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>112</v>
@@ -44163,7 +44156,7 @@
         <v>102</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>116</v>
@@ -44184,13 +44177,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2139</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2140</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2141</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -44225,13 +44218,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2143</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2144</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -44263,12 +44256,7 @@
       <c r="AB210" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -44315,7 +44303,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="BB210" s="1">
         <v>12</v>
@@ -44327,7 +44315,7 @@
         <v>109</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>1496</v>
@@ -44342,13 +44330,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>116</v>
@@ -44372,13 +44360,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1770</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -44413,13 +44401,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2151</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2152</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2153</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -44451,12 +44439,7 @@
       <c r="AB211" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -44503,7 +44486,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="BB211" s="1">
         <v>12</v>
@@ -44518,7 +44501,7 @@
         <v>109</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="BI211" s="1" t="s">
         <v>1437</v>
@@ -44533,13 +44516,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>116</v>
@@ -44563,13 +44546,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2158</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2159</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2160</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -44604,13 +44587,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2161</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2162</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2163</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -44639,12 +44622,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -44694,7 +44672,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="BB212" s="1">
         <v>12</v>
@@ -44706,7 +44684,7 @@
         <v>109</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>175</v>
@@ -44718,7 +44696,7 @@
         <v>102</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>116</v>
@@ -44736,13 +44714,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -44777,13 +44755,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2169</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2170</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2171</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -44812,12 +44790,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -44867,7 +44840,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="BB213" s="1">
         <v>12</v>
@@ -44879,7 +44852,7 @@
         <v>109</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>323</v>
@@ -44891,7 +44864,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>116</v>
@@ -44912,10 +44885,10 @@
         <v>614</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2175</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2176</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -44950,13 +44923,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2177</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2178</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2179</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -44985,12 +44958,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -45040,7 +45008,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BB214" s="1">
         <v>12</v>
@@ -45052,10 +45020,10 @@
         <v>109</v>
       </c>
       <c r="BH214" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="BI214" s="1" t="s">
         <v>2181</v>
-      </c>
-      <c r="BI214" s="1" t="s">
-        <v>2182</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>112</v>
@@ -45064,7 +45032,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>116</v>
@@ -45082,13 +45050,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2184</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2184</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -45123,13 +45091,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2186</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2187</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2188</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -45164,12 +45132,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -45216,7 +45179,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="BB215" s="1">
         <v>12</v>
@@ -45225,16 +45188,16 @@
         <v>16</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2191</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2192</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>112</v>
@@ -45246,13 +45209,13 @@
         <v>113</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>116</v>
@@ -45270,13 +45233,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2195</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2196</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -45311,13 +45274,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -45346,12 +45309,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -45401,7 +45359,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="BB216" s="1">
         <v>12</v>
@@ -45413,7 +45371,7 @@
         <v>109</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>260</v>
@@ -45425,7 +45383,7 @@
         <v>102</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>116</v>
@@ -45443,13 +45401,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2204</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2205</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2206</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -45484,13 +45442,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2207</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2208</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2209</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -45519,12 +45477,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -45574,7 +45527,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="BB217" s="1">
         <v>12</v>
@@ -45586,10 +45539,10 @@
         <v>109</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2211</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2212</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>112</v>
@@ -45601,7 +45554,7 @@
         <v>150</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>116</v>
@@ -45619,13 +45572,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2214</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2215</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -45660,13 +45613,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2217</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2218</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2219</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -45695,12 +45648,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -45747,7 +45695,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="BB218" s="1">
         <v>12</v>
@@ -45756,13 +45704,13 @@
         <v>16</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>297</v>
@@ -45777,13 +45725,13 @@
         <v>202</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>116</v>
@@ -45801,13 +45749,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>404</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -45842,13 +45790,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2228</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2229</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -45880,12 +45828,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -45935,7 +45878,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="BB219" s="1">
         <v>12</v>
@@ -45950,7 +45893,7 @@
         <v>109</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>758</v>
@@ -45962,7 +45905,7 @@
         <v>102</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>116</v>
@@ -45983,13 +45926,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2234</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2235</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -46024,13 +45967,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2237</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2238</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -46059,12 +46002,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -46111,7 +46049,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BB220" s="1">
         <v>12</v>
@@ -46126,10 +46064,10 @@
         <v>109</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2240</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2241</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>112</v>
@@ -46141,13 +46079,13 @@
         <v>113</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>116</v>
@@ -46165,13 +46103,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1605</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -46206,13 +46144,13 @@
         <v>88</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2247</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2248</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -46263,7 +46201,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -46302,13 +46240,13 @@
         <v>109</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>116</v>
@@ -46332,10 +46270,10 @@
         <v>2029</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2252</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2253</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -46370,13 +46308,13 @@
         <v>88</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2255</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2256</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -46430,7 +46368,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -46469,13 +46407,13 @@
         <v>109</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>116</v>
@@ -46496,13 +46434,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2259</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2260</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -46537,13 +46475,13 @@
         <v>88</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2262</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2263</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2264</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -46597,7 +46535,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -46636,13 +46574,13 @@
         <v>109</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>116</v>
@@ -46663,13 +46601,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -46704,13 +46642,13 @@
         <v>88</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2271</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2272</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -46800,13 +46738,13 @@
         <v>109</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>116</v>
@@ -46827,10 +46765,10 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>191</v>
@@ -46868,13 +46806,13 @@
         <v>88</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2277</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2278</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -46928,7 +46866,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -46967,13 +46905,13 @@
         <v>109</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>116</v>
@@ -46997,13 +46935,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -47038,13 +46976,13 @@
         <v>88</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2284</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2285</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -47095,7 +47033,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -47134,13 +47072,13 @@
         <v>109</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>116</v>
@@ -47161,13 +47099,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2289</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2205</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2290</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -47202,10 +47140,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2292</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
@@ -47271,7 +47209,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -47289,7 +47227,7 @@
         <v>217</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -47318,16 +47256,16 @@
         <v>91</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2295</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2296</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -47408,7 +47346,7 @@
         <v>217</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -47437,19 +47375,19 @@
         <v>91</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2297</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2298</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2299</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -47530,7 +47468,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="BB229" s="1">
         <v>12</v>
@@ -47542,7 +47480,7 @@
         <v>109</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>1711</v>
@@ -47557,7 +47495,7 @@
         <v>150</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>116</v>
@@ -47575,13 +47513,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>404</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -47616,13 +47554,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2305</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2306</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2307</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -47700,7 +47638,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BB230" s="1">
         <v>12</v>
@@ -47712,10 +47650,10 @@
         <v>109</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2309</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2310</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>112</v>
@@ -47727,13 +47665,13 @@
         <v>202</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>116</v>
@@ -47751,13 +47689,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2313</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2314</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2315</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -47792,13 +47730,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2316</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2317</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2318</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -47876,7 +47814,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BB231" s="1">
         <v>12</v>
@@ -47888,10 +47826,10 @@
         <v>109</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2320</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2321</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>112</v>
@@ -47903,13 +47841,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>116</v>
@@ -47927,13 +47865,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2324</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2325</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2326</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -47968,13 +47906,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -48055,7 +47993,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BB232" s="1">
         <v>12</v>
@@ -48067,7 +48005,7 @@
         <v>109</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>112</v>
@@ -48076,7 +48014,7 @@
         <v>102</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>116</v>
@@ -48094,13 +48032,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>777</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -48135,13 +48073,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2335</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2336</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2337</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -48177,7 +48115,7 @@
         <v>103</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1709</v>
@@ -48222,7 +48160,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BB233" s="1">
         <v>12</v>
@@ -48234,7 +48172,7 @@
         <v>109</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1660</v>
@@ -48246,7 +48184,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>116</v>
@@ -48267,10 +48205,10 @@
         <v>1417</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2342</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -48305,13 +48243,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -48392,7 +48330,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BB234" s="1">
         <v>12</v>
@@ -48404,7 +48342,7 @@
         <v>109</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1784</v>
@@ -48416,7 +48354,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>116</v>
@@ -48440,7 +48378,7 @@
         <v>843</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -48475,13 +48413,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2352</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2353</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -48520,7 +48458,7 @@
         <v>591</v>
       </c>
       <c r="AH235" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AI235" s="1" t="s">
         <v>98</v>
@@ -48562,7 +48500,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BB235" s="1">
         <v>12</v>
@@ -48574,10 +48512,10 @@
         <v>109</v>
       </c>
       <c r="BH235" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>2356</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>2357</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>112</v>
@@ -48586,7 +48524,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>116</v>
@@ -48604,13 +48542,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2359</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2360</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -48645,13 +48583,13 @@
         <v>88</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2362</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2363</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2364</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -48693,7 +48631,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -48726,13 +48664,13 @@
         <v>109</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>116</v>
@@ -48750,13 +48688,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>288</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -48791,13 +48729,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2372</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -48836,7 +48774,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>103</v>
@@ -48890,16 +48828,16 @@
         <v>16</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2374</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2375</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>112</v>
@@ -48911,13 +48849,13 @@
         <v>202</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>116</v>
@@ -48938,7 +48876,7 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>278</v>
@@ -48979,13 +48917,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2379</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2380</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2381</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -49072,7 +49010,7 @@
         <v>109</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>112</v>
@@ -49084,13 +49022,13 @@
         <v>113</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>116</v>
@@ -49114,7 +49052,7 @@
         <v>604</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -49149,13 +49087,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2386</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2387</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2388</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -49242,7 +49180,7 @@
         <v>109</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>112</v>
@@ -49251,7 +49189,7 @@
         <v>102</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>116</v>
@@ -49269,13 +49207,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2391</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2392</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2393</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -49310,13 +49248,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -49352,7 +49290,7 @@
         <v>591</v>
       </c>
       <c r="AH240" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AI240" s="1" t="s">
         <v>98</v>
@@ -49403,7 +49341,7 @@
         <v>109</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>112</v>
@@ -49412,7 +49350,7 @@
         <v>102</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>116</v>
@@ -49430,13 +49368,13 @@
         <v>98</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2401</v>
       </c>
     </row>
     <row r="241" spans="1:84" x14ac:dyDescent="0.25">
@@ -49471,13 +49409,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2404</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -49513,7 +49451,7 @@
         <v>591</v>
       </c>
       <c r="AH241" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AJ241" s="1" t="s">
         <v>106</v>
@@ -49564,10 +49502,10 @@
         <v>109</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2405</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2406</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>112</v>
@@ -49579,13 +49517,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>116</v>
@@ -49606,10 +49544,10 @@
         <v>488</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2410</v>
       </c>
     </row>
     <row r="242" spans="1:84" x14ac:dyDescent="0.25">
@@ -49644,13 +49582,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2413</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -49737,7 +49675,7 @@
         <v>109</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>112</v>
@@ -49749,13 +49687,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>116</v>
@@ -49776,10 +49714,10 @@
         <v>843</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2418</v>
       </c>
     </row>
     <row r="243" spans="1:84" x14ac:dyDescent="0.25">
@@ -49814,13 +49752,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2421</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -49904,7 +49842,7 @@
         <v>109</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>112</v>
@@ -49916,13 +49854,13 @@
         <v>113</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>116</v>
@@ -49940,13 +49878,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="244" spans="1:84" x14ac:dyDescent="0.25">
@@ -49981,13 +49919,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2427</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2428</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2429</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -50074,7 +50012,7 @@
         <v>109</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>112</v>
@@ -50086,13 +50024,13 @@
         <v>113</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>116</v>
@@ -50110,13 +50048,13 @@
         <v>98</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2434</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2435</v>
       </c>
     </row>
     <row r="245" spans="1:84" x14ac:dyDescent="0.25">
@@ -50151,13 +50089,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2437</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2438</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -50244,7 +50182,7 @@
         <v>109</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>112</v>
@@ -50253,7 +50191,7 @@
         <v>102</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>116</v>
@@ -50274,10 +50212,10 @@
         <v>1122</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="246" spans="1:84" x14ac:dyDescent="0.25">
@@ -50306,7 +50244,7 @@
         <v>91</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>93</v>
@@ -50315,10 +50253,10 @@
         <v>242</v>
       </c>
       <c r="L246" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M246" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>2444</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>244</v>
@@ -50348,7 +50286,7 @@
         <v>42582</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>103</v>
@@ -50399,10 +50337,10 @@
         <v>245</v>
       </c>
       <c r="BH246" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="BI246" s="1" t="s">
         <v>2446</v>
-      </c>
-      <c r="BI246" s="1" t="s">
-        <v>2447</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>112</v>
@@ -50476,16 +50414,16 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2448</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="M247" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>2449</v>
-      </c>
-      <c r="M247" s="1" t="s">
-        <v>2444</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2450</v>
       </c>
       <c r="Q247" s="3">
         <v>17060</v>
@@ -50518,7 +50456,7 @@
         <v>42628</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>103</v>
@@ -50569,16 +50507,16 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BD247" s="1" t="s">
         <v>215</v>
       </c>
       <c r="BH247" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="BI247" s="1" t="s">
         <v>2453</v>
-      </c>
-      <c r="BI247" s="1" t="s">
-        <v>2454</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>112</v>
@@ -50587,7 +50525,7 @@
         <v>102</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>116</v>
@@ -50611,7 +50549,7 @@
         <v>120</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="248" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -50760,7 +50698,7 @@
         <v>109</v>
       </c>
       <c r="BH248" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI248" s="4"/>
       <c r="BJ248" s="4"/>
@@ -50959,7 +50897,7 @@
         <v>109</v>
       </c>
       <c r="BH249" s="4" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BI249" s="4"/>
       <c r="BJ249" s="4"/>
@@ -51160,7 +51098,7 @@
         <v>109</v>
       </c>
       <c r="BH250" s="4" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BI250" s="4"/>
       <c r="BJ250" s="4"/>
@@ -51359,7 +51297,7 @@
         <v>109</v>
       </c>
       <c r="BH251" s="4" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BI251" s="4"/>
       <c r="BJ251" s="4"/>
@@ -51558,7 +51496,7 @@
         <v>109</v>
       </c>
       <c r="BH252" s="4" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BI252" s="4"/>
       <c r="BJ252" s="4"/>
@@ -51752,7 +51690,7 @@
         <v>109</v>
       </c>
       <c r="BH253" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI253" s="4"/>
       <c r="BJ253" s="4"/>
@@ -51957,7 +51895,7 @@
         <v>109</v>
       </c>
       <c r="BH254" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI254" s="4"/>
       <c r="BJ254" s="4"/>
@@ -52149,7 +52087,7 @@
         <v>109</v>
       </c>
       <c r="BH255" s="4" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BI255" s="4"/>
       <c r="BJ255" s="4"/>
@@ -52351,7 +52289,7 @@
         <v>109</v>
       </c>
       <c r="BH256" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI256" s="4"/>
       <c r="BJ256" s="4"/>
@@ -52552,7 +52490,7 @@
         <v>109</v>
       </c>
       <c r="BH257" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI257" s="4"/>
       <c r="BJ257" s="4"/>
@@ -52753,7 +52691,7 @@
         <v>109</v>
       </c>
       <c r="BH258" s="4" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BI258" s="4"/>
       <c r="BJ258" s="4"/>
@@ -52945,7 +52883,7 @@
         <v>109</v>
       </c>
       <c r="BH259" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI259" s="4"/>
       <c r="BJ259" s="4"/>
@@ -53146,7 +53084,7 @@
         <v>109</v>
       </c>
       <c r="BH260" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI260" s="4"/>
       <c r="BJ260" s="4"/>
@@ -53345,7 +53283,7 @@
         <v>109</v>
       </c>
       <c r="BH261" s="4" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BI261" s="4"/>
       <c r="BJ261" s="4"/>
@@ -53549,7 +53487,7 @@
         <v>109</v>
       </c>
       <c r="BH262" s="4" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BI262" s="4"/>
       <c r="BJ262" s="4"/>
@@ -53746,7 +53684,7 @@
         <v>109</v>
       </c>
       <c r="BH263" s="4" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BI263" s="4"/>
       <c r="BJ263" s="4"/>
@@ -53940,7 +53878,7 @@
         <v>109</v>
       </c>
       <c r="BH264" s="4" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BI264" s="4"/>
       <c r="BJ264" s="4"/>
@@ -54134,7 +54072,7 @@
         <v>109</v>
       </c>
       <c r="BH265" s="4" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BI265" s="4"/>
       <c r="BJ265" s="4"/>
@@ -54326,7 +54264,7 @@
         <v>109</v>
       </c>
       <c r="BH266" s="4" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BI266" s="4"/>
       <c r="BJ266" s="4"/>
@@ -54520,7 +54458,7 @@
         <v>109</v>
       </c>
       <c r="BH267" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI267" s="4"/>
       <c r="BJ267" s="4"/>
@@ -54714,7 +54652,7 @@
         <v>109</v>
       </c>
       <c r="BH268" s="4" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BI268" s="4"/>
       <c r="BJ268" s="4"/>
@@ -54776,7 +54714,7 @@
         <v>209</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F269" s="4" t="s">
         <v>89</v>
@@ -54788,7 +54726,7 @@
         <v>91</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="J269" s="4" t="s">
         <v>93</v>
@@ -54906,7 +54844,7 @@
         <v>109</v>
       </c>
       <c r="BH269" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI269" s="4"/>
       <c r="BJ269" s="4"/>
@@ -54942,7 +54880,7 @@
         <v>222</v>
       </c>
       <c r="BZ269" s="4" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="CA269" s="4" t="s">
         <v>118</v>
@@ -55105,7 +55043,7 @@
         <v>109</v>
       </c>
       <c r="BH270" s="4" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BI270" s="4"/>
       <c r="BJ270" s="4"/>
@@ -55297,7 +55235,7 @@
         <v>109</v>
       </c>
       <c r="BH271" s="4" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BI271" s="4"/>
       <c r="BJ271" s="4"/>
@@ -55489,7 +55427,7 @@
         <v>109</v>
       </c>
       <c r="BH272" s="4" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BI272" s="4"/>
       <c r="BJ272" s="4"/>
@@ -55681,7 +55619,7 @@
         <v>109</v>
       </c>
       <c r="BH273" s="4" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BI273" s="4"/>
       <c r="BJ273" s="4"/>
@@ -55873,7 +55811,7 @@
         <v>109</v>
       </c>
       <c r="BH274" s="4" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BI274" s="4"/>
       <c r="BJ274" s="4"/>
@@ -56065,7 +56003,7 @@
         <v>109</v>
       </c>
       <c r="BH275" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI275" s="4"/>
       <c r="BJ275" s="4"/>
@@ -56266,7 +56204,7 @@
         <v>109</v>
       </c>
       <c r="BH276" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI276" s="4"/>
       <c r="BJ276" s="4"/>
@@ -56458,7 +56396,7 @@
         <v>109</v>
       </c>
       <c r="BH277" s="4" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BI277" s="4"/>
       <c r="BJ277" s="4"/>
@@ -56650,7 +56588,7 @@
         <v>109</v>
       </c>
       <c r="BH278" s="4" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BI278" s="4"/>
       <c r="BJ278" s="4"/>
@@ -56844,7 +56782,7 @@
         <v>109</v>
       </c>
       <c r="BH279" s="4" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BI279" s="4"/>
       <c r="BJ279" s="4"/>
@@ -56880,7 +56818,7 @@
       </c>
       <c r="BY279" s="4"/>
       <c r="BZ279" s="4" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="CA279" s="4" t="s">
         <v>118</v>
@@ -57045,7 +56983,7 @@
         <v>109</v>
       </c>
       <c r="BH280" s="4" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BI280" s="4"/>
       <c r="BJ280" s="4"/>
@@ -57235,7 +57173,7 @@
         <v>109</v>
       </c>
       <c r="BH281" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI281" s="4"/>
       <c r="BJ281" s="4"/>
@@ -57432,7 +57370,7 @@
         <v>109</v>
       </c>
       <c r="BH282" s="4" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BI282" s="4"/>
       <c r="BJ282" s="4"/>
@@ -57629,7 +57567,7 @@
         <v>109</v>
       </c>
       <c r="BH283" s="4" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BI283" s="4"/>
       <c r="BJ283" s="4"/>
@@ -57828,7 +57766,7 @@
         <v>109</v>
       </c>
       <c r="BH284" s="4" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BI284" s="4"/>
       <c r="BJ284" s="4"/>
@@ -58018,7 +57956,7 @@
         <v>109</v>
       </c>
       <c r="BH285" s="4" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BI285" s="4"/>
       <c r="BJ285" s="4"/>
@@ -58219,7 +58157,7 @@
         <v>109</v>
       </c>
       <c r="BH286" s="4" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BI286" s="4"/>
       <c r="BJ286" s="4"/>
@@ -58413,7 +58351,7 @@
         <v>109</v>
       </c>
       <c r="BH287" s="4" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BI287" s="4"/>
       <c r="BJ287" s="4"/>
@@ -58612,7 +58550,7 @@
         <v>109</v>
       </c>
       <c r="BH288" s="4" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BI288" s="4"/>
       <c r="BJ288" s="4"/>
@@ -58811,7 +58749,7 @@
         <v>109</v>
       </c>
       <c r="BH289" s="4" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BI289" s="4"/>
       <c r="BJ289" s="4"/>
@@ -59015,7 +58953,7 @@
         <v>109</v>
       </c>
       <c r="BH290" s="4" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BI290" s="4"/>
       <c r="BJ290" s="4"/>
@@ -59214,7 +59152,7 @@
         <v>109</v>
       </c>
       <c r="BH291" s="4" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BI291" s="4"/>
       <c r="BJ291" s="4"/>
@@ -59418,7 +59356,7 @@
         <v>109</v>
       </c>
       <c r="BH292" s="4" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BI292" s="4"/>
       <c r="BJ292" s="4"/>
@@ -59621,7 +59559,7 @@
         <v>109</v>
       </c>
       <c r="BH293" s="4" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BI293" s="4"/>
       <c r="BJ293" s="4"/>
@@ -59825,7 +59763,7 @@
         <v>109</v>
       </c>
       <c r="BH294" s="4" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BI294" s="4"/>
       <c r="BJ294" s="4"/>
@@ -60027,7 +59965,7 @@
         <v>109</v>
       </c>
       <c r="BH295" s="4" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BI295" s="4"/>
       <c r="BJ295" s="4"/>
@@ -60233,7 +60171,7 @@
         <v>109</v>
       </c>
       <c r="BH296" s="4" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BI296" s="4"/>
       <c r="BJ296" s="4"/>
@@ -60440,7 +60378,7 @@
         <v>109</v>
       </c>
       <c r="BH297" s="4" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BI297" s="4"/>
       <c r="BJ297" s="4"/>
@@ -60634,7 +60572,7 @@
         <v>109</v>
       </c>
       <c r="BH298" s="4" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BI298" s="4"/>
       <c r="BJ298" s="4"/>
@@ -60837,7 +60775,7 @@
         <v>109</v>
       </c>
       <c r="BH299" s="4" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BI299" s="4"/>
       <c r="BJ299" s="4"/>
@@ -61041,7 +60979,7 @@
         <v>109</v>
       </c>
       <c r="BH300" s="4" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BI300" s="4"/>
       <c r="BJ300" s="4"/>
@@ -61247,7 +61185,7 @@
         <v>109</v>
       </c>
       <c r="BH301" s="4" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BI301" s="4"/>
       <c r="BJ301" s="4"/>
@@ -61446,7 +61384,7 @@
         <v>109</v>
       </c>
       <c r="BH302" s="4" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BI302" s="4"/>
       <c r="BJ302" s="4"/>
@@ -61650,7 +61588,7 @@
         <v>109</v>
       </c>
       <c r="BH303" s="4" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BI303" s="4"/>
       <c r="BJ303" s="4"/>
@@ -61858,7 +61796,7 @@
         <v>109</v>
       </c>
       <c r="BH304" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI304" s="4"/>
       <c r="BJ304" s="4"/>
@@ -62051,7 +61989,7 @@
         <v>109</v>
       </c>
       <c r="BH305" s="4" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BI305" s="4"/>
       <c r="BJ305" s="4"/>
@@ -62087,7 +62025,7 @@
       </c>
       <c r="BY305" s="4"/>
       <c r="BZ305" s="4" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="CA305" s="4" t="s">
         <v>118</v>
@@ -62250,7 +62188,7 @@
         <v>109</v>
       </c>
       <c r="BH306" s="4" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BI306" s="4"/>
       <c r="BJ306" s="4"/>
@@ -62455,7 +62393,7 @@
         <v>109</v>
       </c>
       <c r="BH307" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI307" s="4"/>
       <c r="BJ307" s="4"/>
@@ -62660,7 +62598,7 @@
         <v>109</v>
       </c>
       <c r="BH308" s="4" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BI308" s="4"/>
       <c r="BJ308" s="4"/>
@@ -62854,7 +62792,7 @@
         <v>109</v>
       </c>
       <c r="BH309" s="4" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BI309" s="4"/>
       <c r="BJ309" s="4"/>
@@ -63062,7 +63000,7 @@
         <v>109</v>
       </c>
       <c r="BH310" s="4" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BI310" s="4"/>
       <c r="BJ310" s="4"/>
@@ -63267,7 +63205,7 @@
         <v>109</v>
       </c>
       <c r="BH311" s="4" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BI311" s="4"/>
       <c r="BJ311" s="4"/>
@@ -63305,7 +63243,7 @@
         <v>107</v>
       </c>
       <c r="BZ311" s="4" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="CA311" s="4" t="s">
         <v>118</v>
@@ -63471,7 +63409,7 @@
         <v>109</v>
       </c>
       <c r="BH312" s="4" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BI312" s="4"/>
       <c r="BJ312" s="4"/>
@@ -63670,7 +63608,7 @@
         <v>109</v>
       </c>
       <c r="BH313" s="4" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BI313" s="4"/>
       <c r="BJ313" s="4"/>
@@ -63864,7 +63802,7 @@
         <v>109</v>
       </c>
       <c r="BH314" s="4" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BI314" s="4"/>
       <c r="BJ314" s="4"/>
@@ -64056,7 +63994,7 @@
         <v>109</v>
       </c>
       <c r="BH315" s="4" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BI315" s="4"/>
       <c r="BJ315" s="4"/>
@@ -64255,7 +64193,7 @@
         <v>109</v>
       </c>
       <c r="BH316" s="4" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BI316" s="4"/>
       <c r="BJ316" s="4"/>
@@ -64291,7 +64229,7 @@
         <v>107</v>
       </c>
       <c r="BZ316" s="4" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="CA316" s="4" t="s">
         <v>118</v>
@@ -64457,7 +64395,7 @@
         <v>109</v>
       </c>
       <c r="BH317" s="4" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BI317" s="4"/>
       <c r="BJ317" s="4"/>
@@ -64650,7 +64588,7 @@
         <v>109</v>
       </c>
       <c r="BH318" s="4" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BI318" s="4"/>
       <c r="BJ318" s="4"/>
@@ -64849,7 +64787,7 @@
         <v>109</v>
       </c>
       <c r="BH319" s="4" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BI319" s="4"/>
       <c r="BJ319" s="4"/>
@@ -65053,7 +64991,7 @@
         <v>109</v>
       </c>
       <c r="BH320" s="4" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BI320" s="4"/>
       <c r="BJ320" s="4"/>
@@ -65254,7 +65192,7 @@
         <v>109</v>
       </c>
       <c r="BH321" s="4" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BI321" s="4"/>
       <c r="BJ321" s="4"/>
@@ -65446,7 +65384,7 @@
         <v>109</v>
       </c>
       <c r="BH322" s="4" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BI322" s="4"/>
       <c r="BJ322" s="4"/>
@@ -65638,7 +65576,7 @@
         <v>109</v>
       </c>
       <c r="BH323" s="4" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BI323" s="4"/>
       <c r="BJ323" s="4"/>
@@ -65665,7 +65603,7 @@
       </c>
       <c r="BY323" s="4"/>
       <c r="BZ323" s="4" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="CA323" s="4" t="s">
         <v>118</v>
@@ -65830,7 +65768,7 @@
         <v>109</v>
       </c>
       <c r="BH324" s="4" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BI324" s="4"/>
       <c r="BJ324" s="4"/>
@@ -66020,7 +65958,7 @@
         <v>109</v>
       </c>
       <c r="BH325" s="4" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BI325" s="4"/>
       <c r="BJ325" s="4"/>
@@ -66219,7 +66157,7 @@
         <v>109</v>
       </c>
       <c r="BH326" s="4" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BI326" s="4"/>
       <c r="BJ326" s="4"/>
@@ -66411,7 +66349,7 @@
         <v>109</v>
       </c>
       <c r="BH327" s="4" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BI327" s="4"/>
       <c r="BJ327" s="4"/>
@@ -66599,7 +66537,7 @@
         <v>109</v>
       </c>
       <c r="BH328" s="4" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BI328" s="4"/>
       <c r="BJ328" s="4"/>
@@ -66806,7 +66744,7 @@
         <v>109</v>
       </c>
       <c r="BH329" s="4" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BI329" s="4"/>
       <c r="BJ329" s="4"/>
@@ -67013,7 +66951,7 @@
         <v>109</v>
       </c>
       <c r="BH330" s="4" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BI330" s="4"/>
       <c r="BJ330" s="4"/>
@@ -67224,7 +67162,7 @@
         <v>109</v>
       </c>
       <c r="BH331" s="4" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BI331" s="4"/>
       <c r="BJ331" s="4"/>
@@ -67421,7 +67359,7 @@
         <v>109</v>
       </c>
       <c r="BH332" s="4" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BI332" s="4"/>
       <c r="BJ332" s="4"/>
@@ -67616,7 +67554,7 @@
         <v>109</v>
       </c>
       <c r="BH333" s="4" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BI333" s="4"/>
       <c r="BJ333" s="4"/>
@@ -67813,7 +67751,7 @@
         <v>109</v>
       </c>
       <c r="BH334" s="4" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BI334" s="4"/>
       <c r="BJ334" s="4"/>
@@ -68010,7 +67948,7 @@
         <v>109</v>
       </c>
       <c r="BH335" s="4" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BI335" s="4"/>
       <c r="BJ335" s="4"/>
@@ -68204,7 +68142,7 @@
         <v>109</v>
       </c>
       <c r="BH336" s="4" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BI336" s="4"/>
       <c r="BJ336" s="4"/>
@@ -68398,7 +68336,7 @@
         <v>109</v>
       </c>
       <c r="BH337" s="4" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BI337" s="4"/>
       <c r="BJ337" s="4"/>
@@ -68590,7 +68528,7 @@
         <v>109</v>
       </c>
       <c r="BH338" s="4" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BI338" s="4"/>
       <c r="BJ338" s="4"/>
@@ -68791,7 +68729,7 @@
         <v>109</v>
       </c>
       <c r="BH339" s="4" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BI339" s="4"/>
       <c r="BJ339" s="4"/>
@@ -68820,7 +68758,7 @@
         <v>107</v>
       </c>
       <c r="BZ339" s="4" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="CA339" s="4" t="s">
         <v>118</v>
@@ -68985,7 +68923,7 @@
         <v>109</v>
       </c>
       <c r="BH340" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI340" s="4"/>
       <c r="BJ340" s="4"/>
@@ -69179,7 +69117,7 @@
         <v>109</v>
       </c>
       <c r="BH341" s="4" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BI341" s="4"/>
       <c r="BJ341" s="4"/>
@@ -69373,7 +69311,7 @@
         <v>109</v>
       </c>
       <c r="BH342" s="4" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BI342" s="4"/>
       <c r="BJ342" s="4"/>
@@ -69565,7 +69503,7 @@
         <v>109</v>
       </c>
       <c r="BH343" s="4" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BI343" s="4"/>
       <c r="BJ343" s="4"/>
@@ -69759,7 +69697,7 @@
         <v>109</v>
       </c>
       <c r="BH344" s="4" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BI344" s="4"/>
       <c r="BJ344" s="4"/>
@@ -69837,14 +69775,14 @@
         <v>93</v>
       </c>
       <c r="K345" s="4" t="s">
+        <v>2141</v>
+      </c>
+      <c r="L345" s="4" t="s">
         <v>2142</v>
-      </c>
-      <c r="L345" s="4" t="s">
-        <v>2143</v>
       </c>
       <c r="M345" s="4"/>
       <c r="N345" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="O345" s="4" t="s">
         <v>97</v>
@@ -69879,12 +69817,8 @@
       <c r="AB345" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="AC345" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD345" s="4" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC345" s="5"/>
+      <c r="AD345" s="4"/>
       <c r="AF345" s="4" t="s">
         <v>103</v>
       </c>
@@ -69938,7 +69872,7 @@
         <v>98</v>
       </c>
       <c r="AZ345" s="4" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="BA345" s="4" t="s">
         <v>262</v>
@@ -69956,7 +69890,7 @@
         <v>109</v>
       </c>
       <c r="BH345" s="4" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BI345" s="4"/>
       <c r="BJ345" s="4"/>
@@ -69972,13 +69906,13 @@
       <c r="BP345" s="4"/>
       <c r="BQ345" s="4"/>
       <c r="BR345" s="4" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="BS345" s="5">
         <v>36949</v>
       </c>
       <c r="BT345" s="4" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="BU345" s="4" t="s">
         <v>116</v>
@@ -70003,13 +69937,13 @@
         <v>98</v>
       </c>
       <c r="CC345" s="4" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="CD345" s="4" t="s">
         <v>1770</v>
       </c>
       <c r="CE345" s="4" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="CF345" s="4"/>
     </row>
@@ -70045,14 +69979,14 @@
         <v>93</v>
       </c>
       <c r="K346" s="4" t="s">
+        <v>2185</v>
+      </c>
+      <c r="L346" s="4" t="s">
         <v>2186</v>
-      </c>
-      <c r="L346" s="4" t="s">
-        <v>2187</v>
       </c>
       <c r="M346" s="4"/>
       <c r="N346" s="4" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="O346" s="4" t="s">
         <v>97</v>
@@ -70088,12 +70022,8 @@
         <v>0</v>
       </c>
       <c r="AB346" s="4"/>
-      <c r="AC346" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD346" s="4" t="s">
-        <v>2135</v>
-      </c>
+      <c r="AC346" s="5"/>
+      <c r="AD346" s="4"/>
       <c r="AF346" s="4" t="s">
         <v>103</v>
       </c>
@@ -70147,7 +70077,7 @@
         <v>98</v>
       </c>
       <c r="AZ346" s="4" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="BA346" s="4" t="s">
         <v>262</v>
@@ -70159,7 +70089,7 @@
         <v>16</v>
       </c>
       <c r="BD346" s="4" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="BE346" s="4"/>
       <c r="BF346" s="4"/>
@@ -70167,7 +70097,7 @@
         <v>109</v>
       </c>
       <c r="BH346" s="4" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BI346" s="4"/>
       <c r="BJ346" s="4"/>
@@ -70183,13 +70113,13 @@
       <c r="BP346" s="4"/>
       <c r="BQ346" s="4"/>
       <c r="BR346" s="4" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="BS346" s="5">
         <v>35243</v>
       </c>
       <c r="BT346" s="4" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="BU346" s="4" t="s">
         <v>116</v>
@@ -70210,13 +70140,13 @@
         <v>98</v>
       </c>
       <c r="CC346" s="4" t="s">
+        <v>2194</v>
+      </c>
+      <c r="CD346" s="4" t="s">
         <v>2195</v>
       </c>
-      <c r="CD346" s="4" t="s">
+      <c r="CE346" s="4" t="s">
         <v>2196</v>
-      </c>
-      <c r="CE346" s="4" t="s">
-        <v>2197</v>
       </c>
       <c r="CF346" s="4"/>
     </row>
@@ -70252,14 +70182,14 @@
         <v>88</v>
       </c>
       <c r="K347" s="4" t="s">
+        <v>2245</v>
+      </c>
+      <c r="L347" s="4" t="s">
         <v>2246</v>
-      </c>
-      <c r="L347" s="4" t="s">
-        <v>2247</v>
       </c>
       <c r="M347" s="4"/>
       <c r="N347" s="4" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="O347" s="4" t="s">
         <v>97</v>
@@ -70316,7 +70246,7 @@
         <v>0</v>
       </c>
       <c r="AN347" s="4" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="AO347" s="4">
         <v>0</v>
@@ -70364,7 +70294,7 @@
         <v>109</v>
       </c>
       <c r="BH347" s="4" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BI347" s="4"/>
       <c r="BJ347" s="4"/>
@@ -70379,7 +70309,7 @@
       <c r="BQ347" s="4"/>
       <c r="BR347" s="4"/>
       <c r="BT347" s="4" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="BU347" s="4" t="s">
         <v>116</v>
@@ -70405,10 +70335,10 @@
         <v>2029</v>
       </c>
       <c r="CD347" s="4" t="s">
+        <v>2251</v>
+      </c>
+      <c r="CE347" s="4" t="s">
         <v>2252</v>
-      </c>
-      <c r="CE347" s="4" t="s">
-        <v>2253</v>
       </c>
       <c r="CF347" s="4"/>
     </row>
@@ -70444,14 +70374,14 @@
         <v>93</v>
       </c>
       <c r="K348" s="4" t="s">
+        <v>2296</v>
+      </c>
+      <c r="L348" s="4" t="s">
         <v>2297</v>
-      </c>
-      <c r="L348" s="4" t="s">
-        <v>2298</v>
       </c>
       <c r="M348" s="4"/>
       <c r="N348" s="4" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="O348" s="4" t="s">
         <v>97</v>
@@ -70542,7 +70472,7 @@
         <v>98</v>
       </c>
       <c r="AZ348" s="4" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="BA348" s="4" t="s">
         <v>262</v>
@@ -70560,7 +70490,7 @@
         <v>109</v>
       </c>
       <c r="BH348" s="4" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BI348" s="4"/>
       <c r="BJ348" s="4"/>
@@ -70577,7 +70507,7 @@
       <c r="BQ348" s="4"/>
       <c r="BR348" s="4"/>
       <c r="BT348" s="4" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BU348" s="4" t="s">
         <v>116</v>
@@ -70598,13 +70528,13 @@
         <v>98</v>
       </c>
       <c r="CC348" s="4" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="CD348" s="4" t="s">
         <v>404</v>
       </c>
       <c r="CE348" s="4" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="CF348" s="4"/>
     </row>
@@ -70640,14 +70570,14 @@
         <v>93</v>
       </c>
       <c r="K349" s="4" t="s">
+        <v>2315</v>
+      </c>
+      <c r="L349" s="4" t="s">
         <v>2316</v>
-      </c>
-      <c r="L349" s="4" t="s">
-        <v>2317</v>
       </c>
       <c r="M349" s="4"/>
       <c r="N349" s="4" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="O349" s="4" t="s">
         <v>97</v>
@@ -70736,7 +70666,7 @@
         <v>98</v>
       </c>
       <c r="AZ349" s="4" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BA349" s="4" t="s">
         <v>262</v>
@@ -70754,7 +70684,7 @@
         <v>109</v>
       </c>
       <c r="BH349" s="4" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BI349" s="4"/>
       <c r="BJ349" s="4"/>
@@ -70770,13 +70700,13 @@
       <c r="BP349" s="4"/>
       <c r="BQ349" s="4"/>
       <c r="BR349" s="4" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BS349" s="5">
         <v>37735</v>
       </c>
       <c r="BT349" s="4" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BU349" s="4" t="s">
         <v>116</v>
@@ -70797,13 +70727,13 @@
         <v>98</v>
       </c>
       <c r="CC349" s="4" t="s">
+        <v>2323</v>
+      </c>
+      <c r="CD349" s="4" t="s">
         <v>2324</v>
       </c>
-      <c r="CD349" s="4" t="s">
+      <c r="CE349" s="4" t="s">
         <v>2325</v>
-      </c>
-      <c r="CE349" s="4" t="s">
-        <v>2326</v>
       </c>
       <c r="CF349" s="4"/>
     </row>
@@ -70839,14 +70769,14 @@
         <v>93</v>
       </c>
       <c r="K350" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L350" s="4" t="s">
         <v>2344</v>
-      </c>
-      <c r="L350" s="4" t="s">
-        <v>2345</v>
       </c>
       <c r="M350" s="4"/>
       <c r="N350" s="4" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="O350" s="4" t="s">
         <v>97</v>
@@ -70937,7 +70867,7 @@
         <v>98</v>
       </c>
       <c r="AZ350" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BA350" s="4" t="s">
         <v>262</v>
@@ -70955,7 +70885,7 @@
         <v>109</v>
       </c>
       <c r="BH350" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI350" s="4"/>
       <c r="BJ350" s="4"/>
@@ -70970,7 +70900,7 @@
       <c r="BQ350" s="4"/>
       <c r="BR350" s="4"/>
       <c r="BT350" s="4" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BU350" s="4" t="s">
         <v>116</v>
@@ -70997,7 +70927,7 @@
         <v>843</v>
       </c>
       <c r="CE350" s="4" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="CF350" s="4"/>
     </row>
@@ -71033,14 +70963,14 @@
         <v>93</v>
       </c>
       <c r="K351" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="L351" s="4" t="s">
         <v>2351</v>
-      </c>
-      <c r="L351" s="4" t="s">
-        <v>2352</v>
       </c>
       <c r="M351" s="4"/>
       <c r="N351" s="4" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="O351" s="4" t="s">
         <v>97</v>
@@ -71083,7 +71013,7 @@
         <v>591</v>
       </c>
       <c r="AH351" s="4" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AI351" s="4" t="s">
         <v>98</v>
@@ -71131,7 +71061,7 @@
         <v>98</v>
       </c>
       <c r="AZ351" s="4" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BA351" s="4" t="s">
         <v>262</v>
@@ -71149,7 +71079,7 @@
         <v>109</v>
       </c>
       <c r="BH351" s="4" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BI351" s="4"/>
       <c r="BJ351" s="4"/>
@@ -71164,7 +71094,7 @@
       <c r="BQ351" s="4"/>
       <c r="BR351" s="4"/>
       <c r="BT351" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BU351" s="4" t="s">
         <v>116</v>
@@ -71185,13 +71115,13 @@
         <v>98</v>
       </c>
       <c r="CC351" s="4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="CD351" s="4" t="s">
         <v>2359</v>
       </c>
-      <c r="CD351" s="4" t="s">
+      <c r="CE351" s="4" t="s">
         <v>2360</v>
-      </c>
-      <c r="CE351" s="4" t="s">
-        <v>2361</v>
       </c>
       <c r="CF351" s="4"/>
     </row>
@@ -71227,14 +71157,14 @@
         <v>88</v>
       </c>
       <c r="K352" s="4" t="s">
+        <v>2361</v>
+      </c>
+      <c r="L352" s="4" t="s">
         <v>2362</v>
-      </c>
-      <c r="L352" s="4" t="s">
-        <v>2363</v>
       </c>
       <c r="M352" s="4"/>
       <c r="N352" s="4" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="O352" s="4" t="s">
         <v>97</v>
@@ -71284,7 +71214,7 @@
         <v>0</v>
       </c>
       <c r="AN352" s="4" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="AO352" s="4">
         <v>0</v>
@@ -71330,7 +71260,7 @@
         <v>109</v>
       </c>
       <c r="BH352" s="4" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BI352" s="4"/>
       <c r="BJ352" s="4"/>
@@ -71345,7 +71275,7 @@
       <c r="BQ352" s="4"/>
       <c r="BR352" s="4"/>
       <c r="BT352" s="4" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BU352" s="4" t="s">
         <v>116</v>
@@ -71366,13 +71296,13 @@
         <v>98</v>
       </c>
       <c r="CC352" s="4" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="CD352" s="4" t="s">
         <v>288</v>
       </c>
       <c r="CE352" s="4" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="CF352" s="4"/>
     </row>
@@ -71408,14 +71338,14 @@
         <v>93</v>
       </c>
       <c r="K353" s="4" t="s">
+        <v>2369</v>
+      </c>
+      <c r="L353" s="4" t="s">
         <v>2370</v>
-      </c>
-      <c r="L353" s="4" t="s">
-        <v>2371</v>
       </c>
       <c r="M353" s="4"/>
       <c r="N353" s="4" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="O353" s="4" t="s">
         <v>97</v>
@@ -71457,7 +71387,7 @@
         <v>42247</v>
       </c>
       <c r="AD353" s="4" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="AF353" s="4" t="s">
         <v>103</v>
@@ -71522,7 +71452,7 @@
         <v>16</v>
       </c>
       <c r="BD353" s="4" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BE353" s="4"/>
       <c r="BF353" s="4"/>
@@ -71530,7 +71460,7 @@
         <v>109</v>
       </c>
       <c r="BH353" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI353" s="4"/>
       <c r="BJ353" s="4"/>
@@ -71546,13 +71476,13 @@
       <c r="BP353" s="4"/>
       <c r="BQ353" s="4"/>
       <c r="BR353" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BS353" s="5">
         <v>36580</v>
       </c>
       <c r="BT353" s="4" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BU353" s="4" t="s">
         <v>116</v>
@@ -71575,7 +71505,7 @@
         <v>98</v>
       </c>
       <c r="CC353" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="CD353" s="4" t="s">
         <v>278</v>
@@ -71617,14 +71547,14 @@
         <v>93</v>
       </c>
       <c r="K354" s="4" t="s">
+        <v>2378</v>
+      </c>
+      <c r="L354" s="4" t="s">
         <v>2379</v>
-      </c>
-      <c r="L354" s="4" t="s">
-        <v>2380</v>
       </c>
       <c r="M354" s="4"/>
       <c r="N354" s="4" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="O354" s="4" t="s">
         <v>97</v>
@@ -71729,7 +71659,7 @@
         <v>109</v>
       </c>
       <c r="BH354" s="4" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BI354" s="4"/>
       <c r="BJ354" s="4"/>
@@ -71745,13 +71675,13 @@
       <c r="BP354" s="4"/>
       <c r="BQ354" s="4"/>
       <c r="BR354" s="4" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BS354" s="5">
         <v>37747</v>
       </c>
       <c r="BT354" s="4" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BU354" s="4" t="s">
         <v>116</v>
@@ -71778,7 +71708,7 @@
         <v>604</v>
       </c>
       <c r="CE354" s="4" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="CF354" s="4"/>
     </row>
@@ -71814,14 +71744,14 @@
         <v>93</v>
       </c>
       <c r="K355" s="4" t="s">
+        <v>2385</v>
+      </c>
+      <c r="L355" s="4" t="s">
         <v>2386</v>
-      </c>
-      <c r="L355" s="4" t="s">
-        <v>2387</v>
       </c>
       <c r="M355" s="4"/>
       <c r="N355" s="4" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="O355" s="4" t="s">
         <v>97</v>
@@ -71926,7 +71856,7 @@
         <v>109</v>
       </c>
       <c r="BH355" s="4" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BI355" s="4"/>
       <c r="BJ355" s="4"/>
@@ -71941,7 +71871,7 @@
       <c r="BQ355" s="4"/>
       <c r="BR355" s="4"/>
       <c r="BT355" s="4" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BU355" s="4" t="s">
         <v>116</v>
@@ -71962,13 +71892,13 @@
         <v>98</v>
       </c>
       <c r="CC355" s="4" t="s">
+        <v>2390</v>
+      </c>
+      <c r="CD355" s="4" t="s">
         <v>2391</v>
       </c>
-      <c r="CD355" s="4" t="s">
+      <c r="CE355" s="4" t="s">
         <v>2392</v>
-      </c>
-      <c r="CE355" s="4" t="s">
-        <v>2393</v>
       </c>
       <c r="CF355" s="4"/>
     </row>
@@ -72004,14 +71934,14 @@
         <v>93</v>
       </c>
       <c r="K356" s="4" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L356" s="4" t="s">
         <v>2394</v>
-      </c>
-      <c r="L356" s="4" t="s">
-        <v>2395</v>
       </c>
       <c r="M356" s="4"/>
       <c r="N356" s="4" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="O356" s="4" t="s">
         <v>97</v>
@@ -72052,7 +71982,7 @@
         <v>591</v>
       </c>
       <c r="AH356" s="4" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AI356" s="4" t="s">
         <v>98</v>
@@ -72116,7 +72046,7 @@
         <v>109</v>
       </c>
       <c r="BH356" s="4" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BI356" s="4"/>
       <c r="BJ356" s="4"/>
@@ -72131,7 +72061,7 @@
       <c r="BQ356" s="4"/>
       <c r="BR356" s="4"/>
       <c r="BT356" s="4" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BU356" s="4" t="s">
         <v>116</v>
@@ -72152,13 +72082,13 @@
         <v>98</v>
       </c>
       <c r="CC356" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="CD356" s="4" t="s">
         <v>2399</v>
       </c>
-      <c r="CD356" s="4" t="s">
+      <c r="CE356" s="4" t="s">
         <v>2400</v>
-      </c>
-      <c r="CE356" s="4" t="s">
-        <v>2401</v>
       </c>
       <c r="CF356" s="4"/>
     </row>
@@ -72194,14 +72124,14 @@
         <v>93</v>
       </c>
       <c r="K357" s="4" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L357" s="4" t="s">
         <v>2427</v>
-      </c>
-      <c r="L357" s="4" t="s">
-        <v>2428</v>
       </c>
       <c r="M357" s="4"/>
       <c r="N357" s="4" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="O357" s="4" t="s">
         <v>97</v>
@@ -72306,7 +72236,7 @@
         <v>109</v>
       </c>
       <c r="BH357" s="4" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BI357" s="4"/>
       <c r="BJ357" s="4"/>
@@ -72322,13 +72252,13 @@
       <c r="BP357" s="4"/>
       <c r="BQ357" s="4"/>
       <c r="BR357" s="4" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BS357" s="5">
         <v>37785</v>
       </c>
       <c r="BT357" s="4" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BU357" s="4" t="s">
         <v>116</v>
@@ -72349,13 +72279,13 @@
         <v>98</v>
       </c>
       <c r="CC357" s="4" t="s">
+        <v>2432</v>
+      </c>
+      <c r="CD357" s="4" t="s">
         <v>2433</v>
       </c>
-      <c r="CD357" s="4" t="s">
+      <c r="CE357" s="4" t="s">
         <v>2434</v>
-      </c>
-      <c r="CE357" s="4" t="s">
-        <v>2435</v>
       </c>
       <c r="CF357" s="4"/>
     </row>
@@ -72502,7 +72432,7 @@
         <v>109</v>
       </c>
       <c r="BH358" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BM358" s="1" t="s">
         <v>112</v>
@@ -72687,7 +72617,7 @@
         <v>109</v>
       </c>
       <c r="BH359" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BM359" s="1" t="s">
         <v>112</v>
@@ -72878,7 +72808,7 @@
         <v>109</v>
       </c>
       <c r="BH360" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BM360" s="1" t="s">
         <v>112</v>
@@ -73072,7 +73002,7 @@
         <v>109</v>
       </c>
       <c r="BH361" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BM361" s="1" t="s">
         <v>112</v>
@@ -73096,7 +73026,7 @@
         <v>0</v>
       </c>
       <c r="BZ361" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="CA361" s="1" t="s">
         <v>118</v>
@@ -73254,7 +73184,7 @@
         <v>109</v>
       </c>
       <c r="BH362" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BM362" s="1" t="s">
         <v>112</v>
@@ -73284,7 +73214,7 @@
         <v>107</v>
       </c>
       <c r="BZ362" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="CA362" s="1" t="s">
         <v>118</v>
@@ -73448,7 +73378,7 @@
         <v>109</v>
       </c>
       <c r="BH363" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BM363" s="1" t="s">
         <v>112</v>
@@ -73639,7 +73569,7 @@
         <v>109</v>
       </c>
       <c r="BH364" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BM364" s="1" t="s">
         <v>112</v>
@@ -73824,7 +73754,7 @@
         <v>109</v>
       </c>
       <c r="BH365" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BM365" s="1" t="s">
         <v>112</v>
@@ -73892,16 +73822,16 @@
         <v>93</v>
       </c>
       <c r="K366" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="L366" s="1" t="s">
         <v>2379</v>
-      </c>
-      <c r="L366" s="1" t="s">
-        <v>2380</v>
       </c>
       <c r="M366" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N366" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="O366" s="1" t="s">
         <v>97</v>
@@ -74000,7 +73930,7 @@
         <v>109</v>
       </c>
       <c r="BH366" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BM366" s="1" t="s">
         <v>112</v>
@@ -74009,13 +73939,13 @@
         <v>113</v>
       </c>
       <c r="BR366" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BS366" s="3">
         <v>37747</v>
       </c>
       <c r="BT366" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BU366" s="1" t="s">
         <v>116</v>
@@ -74024,7 +73954,7 @@
         <v>0</v>
       </c>
       <c r="BZ366" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="CA366" s="1" t="s">
         <v>118</v>
@@ -74039,10 +73969,11 @@
         <v>604</v>
       </c>
       <c r="CE366" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF366" xr:uid="{039641C7-74C0-4DA7-8C87-1E043ED3356D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>